--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_19.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_19.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_0</t>
+          <t>model_1_19_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9726748595581673</v>
+        <v>0.8456000797392788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7840736032917908</v>
+        <v>0.6246856357055666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.743847441309216</v>
+        <v>0.719058003458661</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9224587733555381</v>
+        <v>0.7909597884518011</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1137416265838316</v>
+        <v>0.3659575538704527</v>
       </c>
       <c r="G2" t="n">
-        <v>1.443900809037431</v>
+        <v>2.509728882200618</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9162428498582058</v>
+        <v>1.004913231675448</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2445249197156399</v>
+        <v>0.4512491458538416</v>
       </c>
       <c r="J2" t="n">
-        <v>1.252514716056071</v>
+        <v>1.146992245664114</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3372560252743182</v>
+        <v>0.604944256829051</v>
       </c>
       <c r="L2" t="n">
-        <v>2.74880898827729</v>
+        <v>0.7897533000705073</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3425674705400487</v>
+        <v>0.6144715241517089</v>
       </c>
       <c r="N2" t="n">
-        <v>134.3476516726209</v>
+        <v>36.01047585067543</v>
       </c>
       <c r="O2" t="n">
-        <v>275.6828242158373</v>
+        <v>72.97505943890124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_1</t>
+          <t>model_1_19_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9730459217872369</v>
+        <v>0.8460535860304419</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7838048570759989</v>
+        <v>0.6239443840573954</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7449462164300167</v>
+        <v>0.7210776940278643</v>
       </c>
       <c r="E3" t="n">
-        <v>0.922873211890115</v>
+        <v>0.7987756628550902</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1121970701491431</v>
+        <v>0.3648826565991414</v>
       </c>
       <c r="G3" t="n">
-        <v>1.445697916219893</v>
+        <v>2.514685635385089</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9123125949617434</v>
+        <v>0.9976889156177957</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2432179949508418</v>
+        <v>0.4343772405755987</v>
       </c>
       <c r="J3" t="n">
-        <v>1.228979403904043</v>
+        <v>1.137710218284302</v>
       </c>
       <c r="K3" t="n">
-        <v>0.334958311061456</v>
+        <v>0.6040551767836622</v>
       </c>
       <c r="L3" t="n">
-        <v>2.725061005616837</v>
+        <v>0.7903708405520911</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3402335696252056</v>
+        <v>0.6135684419843593</v>
       </c>
       <c r="N3" t="n">
-        <v>134.3749967979744</v>
+        <v>36.01635893171543</v>
       </c>
       <c r="O3" t="n">
-        <v>275.7101693411909</v>
+        <v>72.98094251994125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_2</t>
+          <t>model_1_19_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9733668472337391</v>
+        <v>0.8461233466272832</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7834732711826422</v>
+        <v>0.6238679343136307</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7460704364332459</v>
+        <v>0.7212881703330329</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9230129695737953</v>
+        <v>0.7996047931609729</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1108612094103849</v>
+        <v>0.3647173105462842</v>
       </c>
       <c r="G4" t="n">
-        <v>1.447915232615582</v>
+        <v>2.515196855173662</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9082913251962139</v>
+        <v>0.9969360540783248</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2427772715078366</v>
+        <v>0.4325874206191411</v>
       </c>
       <c r="J4" t="n">
-        <v>1.204849133695847</v>
+        <v>1.133803098876245</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3329582697732328</v>
+        <v>0.6039182979065001</v>
       </c>
       <c r="L4" t="n">
-        <v>2.704521777040696</v>
+        <v>0.7904658337052366</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3382020296860006</v>
+        <v>0.6134294074017106</v>
       </c>
       <c r="N4" t="n">
-        <v>134.3989524514028</v>
+        <v>36.01726543425454</v>
       </c>
       <c r="O4" t="n">
-        <v>275.7341249946192</v>
+        <v>72.98184902248036</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_3</t>
+          <t>model_1_19_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9736352804581458</v>
+        <v>0.846139875273959</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7831114715591728</v>
+        <v>0.6237868687497861</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7471701524693317</v>
+        <v>0.7214565041516978</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9228502515780221</v>
+        <v>0.8002724985439661</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1097438489474751</v>
+        <v>0.3646781344696642</v>
       </c>
       <c r="G5" t="n">
-        <v>1.450334588363656</v>
+        <v>2.515738940972364</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9043577047003342</v>
+        <v>0.9963339337695158</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2432903998986881</v>
+        <v>0.4311460640422116</v>
       </c>
       <c r="J5" t="n">
-        <v>1.181317661619963</v>
+        <v>1.134362390509738</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3312760917233163</v>
+        <v>0.6038858621210338</v>
       </c>
       <c r="L5" t="n">
-        <v>2.687342050678666</v>
+        <v>0.7904883407985824</v>
       </c>
       <c r="M5" t="n">
-        <v>0.336493359013359</v>
+        <v>0.6133964607850471</v>
       </c>
       <c r="N5" t="n">
-        <v>134.4192125492683</v>
+        <v>36.01748027561077</v>
       </c>
       <c r="O5" t="n">
-        <v>275.7543850924847</v>
+        <v>72.98206386383659</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_4</t>
+          <t>model_1_19_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9738792932346741</v>
+        <v>0.8461534479232264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7827409243624807</v>
+        <v>0.6237040342554471</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7482155251676856</v>
+        <v>0.7216237345272944</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9225792465458975</v>
+        <v>0.8009360140719953</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1087281392508077</v>
+        <v>0.364645964676331</v>
       </c>
       <c r="G6" t="n">
-        <v>1.452812439174149</v>
+        <v>2.516292855617427</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9006184671725144</v>
+        <v>0.9957357604125812</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2441450095894355</v>
+        <v>0.4297137519857587</v>
       </c>
       <c r="J6" t="n">
-        <v>1.157662712629955</v>
+        <v>1.135067679723275</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3297395021085701</v>
+        <v>0.6038592258766368</v>
       </c>
       <c r="L6" t="n">
-        <v>2.671725232980855</v>
+        <v>0.790506822703968</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3349325696482066</v>
+        <v>0.6133694050464272</v>
       </c>
       <c r="N6" t="n">
-        <v>134.4378092952072</v>
+        <v>36.01765671181185</v>
       </c>
       <c r="O6" t="n">
-        <v>275.7729818384237</v>
+        <v>72.98224030003767</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_5</t>
+          <t>model_1_19_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9740454826340837</v>
+        <v>0.846231960277285</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7823064207956543</v>
+        <v>0.6236230370912331</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7492959025717566</v>
+        <v>0.7218484360749917</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9218273707615589</v>
+        <v>0.8018082777195649</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1080363714390347</v>
+        <v>0.3644598752729727</v>
       </c>
       <c r="G7" t="n">
-        <v>1.455717966526222</v>
+        <v>2.516834484027483</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8967540198420336</v>
+        <v>0.9949320160054123</v>
       </c>
       <c r="I7" t="n">
-        <v>0.246516036896555</v>
+        <v>0.4278308213141431</v>
       </c>
       <c r="J7" t="n">
-        <v>1.133626697798656</v>
+        <v>1.129911459839808</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3286888672271008</v>
+        <v>0.6037051227817872</v>
       </c>
       <c r="L7" t="n">
-        <v>2.66108911141864</v>
+        <v>0.790613733143537</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3338653883176038</v>
+        <v>0.6132128749818805</v>
       </c>
       <c r="N7" t="n">
-        <v>134.4505746719389</v>
+        <v>36.01867763029695</v>
       </c>
       <c r="O7" t="n">
-        <v>275.7857472151553</v>
+        <v>72.98326121852277</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_6</t>
+          <t>model_1_19_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9741684464387649</v>
+        <v>0.8463841322794983</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7818188892393331</v>
+        <v>0.6235469015245095</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7503865377238674</v>
+        <v>0.7221425345840927</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9208347596089635</v>
+        <v>0.802933654008094</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1075245313193055</v>
+        <v>0.36409919831405</v>
       </c>
       <c r="G8" t="n">
-        <v>1.458978092288218</v>
+        <v>2.517343602912736</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8928528811415929</v>
+        <v>0.9938800426911695</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2496462190319255</v>
+        <v>0.4254015035996141</v>
       </c>
       <c r="J8" t="n">
-        <v>1.10931450438586</v>
+        <v>1.117688394042812</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3279093339923485</v>
+        <v>0.6034063293619399</v>
       </c>
       <c r="L8" t="n">
-        <v>2.653219427919048</v>
+        <v>0.790820946082721</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3330735782136514</v>
+        <v>0.6129093758643545</v>
       </c>
       <c r="N8" t="n">
-        <v>134.4600725182571</v>
+        <v>36.02065785126441</v>
       </c>
       <c r="O8" t="n">
-        <v>275.7952450614736</v>
+        <v>72.98524143949022</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_7</t>
+          <t>model_1_19_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9742312664185743</v>
+        <v>0.8468758004104942</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7813257525799329</v>
+        <v>0.6229984971322973</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7514039929221745</v>
+        <v>0.7236017598192228</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9194849057579667</v>
+        <v>0.8086836244751302</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1072630414762542</v>
+        <v>0.3629338501310231</v>
       </c>
       <c r="G9" t="n">
-        <v>1.462275699400313</v>
+        <v>2.52101078560863</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8892135028926904</v>
+        <v>0.9886604786358499</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2539029598500231</v>
+        <v>0.4129892062587426</v>
       </c>
       <c r="J9" t="n">
-        <v>1.086144010106799</v>
+        <v>1.06825442804483</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3275103685019058</v>
+        <v>0.6024399141250711</v>
       </c>
       <c r="L9" t="n">
-        <v>2.649198949211247</v>
+        <v>0.7914904516228005</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3326683294155535</v>
+        <v>0.6119277405535658</v>
       </c>
       <c r="N9" t="n">
-        <v>134.4649422594407</v>
+        <v>36.02706938473479</v>
       </c>
       <c r="O9" t="n">
-        <v>275.8001148026571</v>
+        <v>72.99165297296061</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_8</t>
+          <t>model_1_19_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9742551701842563</v>
+        <v>0.8469433177519079</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7807744373854598</v>
+        <v>0.6217748632521333</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7524308836094638</v>
+        <v>0.7256189050834562</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9179104359860971</v>
+        <v>0.816800480289234</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1071635414134477</v>
+        <v>0.362773821025659</v>
       </c>
       <c r="G10" t="n">
-        <v>1.465962346644328</v>
+        <v>2.529193230999602</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8855403744468</v>
+        <v>0.9814452669864895</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2588680230972992</v>
+        <v>0.3954675809886275</v>
       </c>
       <c r="J10" t="n">
-        <v>1.0621323955766</v>
+        <v>1.052348391514863</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3273584295744463</v>
+        <v>0.6023070819985923</v>
       </c>
       <c r="L10" t="n">
-        <v>2.647669108207594</v>
+        <v>0.7915823901302576</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3325139976018697</v>
+        <v>0.6117928164538783</v>
       </c>
       <c r="N10" t="n">
-        <v>134.4667983738946</v>
+        <v>36.02795144297569</v>
       </c>
       <c r="O10" t="n">
-        <v>275.801970917111</v>
+        <v>72.99253503120151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_9</t>
+          <t>model_1_19_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9742486228025092</v>
+        <v>0.8467959482211613</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7802225740775695</v>
+        <v>0.6205524239094828</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7533934204136638</v>
+        <v>0.7272586797004841</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9161701229221262</v>
+        <v>0.8235479330919584</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1071907950647645</v>
+        <v>0.3631231152020807</v>
       </c>
       <c r="G11" t="n">
-        <v>1.469652659125287</v>
+        <v>2.537367688512721</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8820974361092672</v>
+        <v>0.9755798882609757</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2643560703034492</v>
+        <v>0.3809020469635319</v>
       </c>
       <c r="J11" t="n">
-        <v>1.038296002363632</v>
+        <v>1.034963822834588</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3274000535503385</v>
+        <v>0.6025969757657939</v>
       </c>
       <c r="L11" t="n">
-        <v>2.648088140639409</v>
+        <v>0.7913817167266878</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3325562771137735</v>
+        <v>0.6120872757581258</v>
       </c>
       <c r="N11" t="n">
-        <v>134.4662898019308</v>
+        <v>36.02602668376569</v>
       </c>
       <c r="O11" t="n">
-        <v>275.8014623451472</v>
+        <v>72.9906102719915</v>
       </c>
     </row>
   </sheetData>
